--- a/data/test7.xlsx
+++ b/data/test7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erenk\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erenk\OneDrive\Desktop\Grup1_PythonProgramlama_Projesi\python-duygu-analizi\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4427725-63D2-4280-B0AC-950DFCEE17A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF3EF94-005E-4C70-A8FE-9419CB42D813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="4950" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="508">
   <si>
     <t>Pozitif</t>
   </si>
@@ -1543,18 +1543,33 @@
   </si>
   <si>
     <t>Yıllardır almayı çok istediği kemanı sonunda aldığı için mutlu olmuştu.</t>
+  </si>
+  <si>
+    <t>Cümle</t>
+  </si>
+  <si>
+    <t>Sınıf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1578,7 +1593,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1589,6 +1604,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1869,10 +1885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B501"/>
+  <dimension ref="A1:B502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A466" workbookViewId="0">
-      <selection activeCell="D490" sqref="D490"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1881,16 +1897,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
+      <c r="A1" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -1898,7 +1914,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1906,7 +1922,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -1914,7 +1930,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -1922,7 +1938,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -1930,7 +1946,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -1938,7 +1954,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -1946,7 +1962,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -1954,7 +1970,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -1962,7 +1978,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -1970,7 +1986,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -1978,7 +1994,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
@@ -1986,7 +2002,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
@@ -1994,7 +2010,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
@@ -2002,7 +2018,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
@@ -2010,7 +2026,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
@@ -2018,7 +2034,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
@@ -2026,7 +2042,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
@@ -2034,7 +2050,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
@@ -2042,7 +2058,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
@@ -2050,7 +2066,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
@@ -2058,7 +2074,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>2</v>
@@ -2066,7 +2082,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>2</v>
@@ -2074,7 +2090,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>2</v>
@@ -2082,15 +2098,15 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>2</v>
@@ -2098,7 +2114,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>2</v>
@@ -2106,7 +2122,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>2</v>
@@ -2114,7 +2130,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>2</v>
@@ -2122,7 +2138,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>2</v>
@@ -2130,7 +2146,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>2</v>
@@ -2138,7 +2154,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>2</v>
@@ -2146,7 +2162,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>2</v>
@@ -2154,7 +2170,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>2</v>
@@ -2162,7 +2178,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>2</v>
@@ -2170,7 +2186,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>2</v>
@@ -2178,7 +2194,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>2</v>
@@ -2186,7 +2202,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>2</v>
@@ -2194,7 +2210,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>2</v>
@@ -2202,7 +2218,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>2</v>
@@ -2210,7 +2226,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>2</v>
@@ -2218,7 +2234,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>2</v>
@@ -2226,7 +2242,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>2</v>
@@ -2234,7 +2250,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>2</v>
@@ -2242,7 +2258,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>2</v>
@@ -2250,7 +2266,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>2</v>
@@ -2258,7 +2274,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>2</v>
@@ -2266,7 +2282,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>2</v>
@@ -2274,7 +2290,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>2</v>
@@ -2282,15 +2298,15 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
         <v>2</v>
@@ -2298,7 +2314,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
         <v>2</v>
@@ -2306,7 +2322,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
         <v>2</v>
@@ -2314,7 +2330,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
         <v>2</v>
@@ -2322,7 +2338,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
         <v>2</v>
@@ -2330,7 +2346,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
         <v>2</v>
@@ -2338,7 +2354,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
         <v>2</v>
@@ -2346,7 +2362,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
         <v>2</v>
@@ -2354,7 +2370,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
         <v>2</v>
@@ -2362,7 +2378,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B61" t="s">
         <v>2</v>
@@ -2370,7 +2386,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
         <v>2</v>
@@ -2378,7 +2394,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
         <v>2</v>
@@ -2386,7 +2402,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B64" t="s">
         <v>2</v>
@@ -2394,7 +2410,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
         <v>2</v>
@@ -2402,7 +2418,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66" t="s">
         <v>2</v>
@@ -2410,7 +2426,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B67" t="s">
         <v>2</v>
@@ -2418,7 +2434,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68" t="s">
         <v>2</v>
@@ -2426,7 +2442,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" t="s">
         <v>2</v>
@@ -2434,7 +2450,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70" t="s">
         <v>2</v>
@@ -2442,7 +2458,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71" t="s">
         <v>2</v>
@@ -2450,7 +2466,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B72" t="s">
         <v>2</v>
@@ -2458,7 +2474,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s">
         <v>2</v>
@@ -2466,7 +2482,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
         <v>2</v>
@@ -2474,7 +2490,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75" t="s">
         <v>2</v>
@@ -2482,15 +2498,15 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B77" t="s">
         <v>78</v>
@@ -2498,7 +2514,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B78" t="s">
         <v>78</v>
@@ -2506,7 +2522,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B79" t="s">
         <v>78</v>
@@ -2514,7 +2530,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B80" t="s">
         <v>78</v>
@@ -2522,7 +2538,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B81" t="s">
         <v>78</v>
@@ -2530,7 +2546,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B82" t="s">
         <v>78</v>
@@ -2538,7 +2554,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B83" t="s">
         <v>78</v>
@@ -2546,7 +2562,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B84" t="s">
         <v>78</v>
@@ -2554,7 +2570,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B85" t="s">
         <v>78</v>
@@ -2562,7 +2578,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B86" t="s">
         <v>78</v>
@@ -2570,7 +2586,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B87" t="s">
         <v>78</v>
@@ -2578,7 +2594,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B88" t="s">
         <v>78</v>
@@ -2586,7 +2602,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B89" t="s">
         <v>78</v>
@@ -2594,7 +2610,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B90" t="s">
         <v>78</v>
@@ -2602,7 +2618,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B91" t="s">
         <v>78</v>
@@ -2610,7 +2626,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B92" t="s">
         <v>78</v>
@@ -2618,7 +2634,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B93" t="s">
         <v>78</v>
@@ -2626,7 +2642,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B94" t="s">
         <v>78</v>
@@ -2634,7 +2650,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B95" t="s">
         <v>78</v>
@@ -2642,7 +2658,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B96" t="s">
         <v>78</v>
@@ -2650,7 +2666,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B97" t="s">
         <v>78</v>
@@ -2658,7 +2674,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B98" t="s">
         <v>78</v>
@@ -2666,223 +2682,223 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>101</v>
       </c>
-      <c r="B99" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
+      <c r="B100" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B100" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+      <c r="B101" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B101" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+      <c r="B102" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B102" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+      <c r="B103" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B103" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+      <c r="B104" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B104" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+      <c r="B105" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B105" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
+      <c r="B106" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B106" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+      <c r="B107" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B107" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
+      <c r="B108" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B108" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
+      <c r="B109" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B109" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
+      <c r="B110" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B110" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+      <c r="B111" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B111" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
+      <c r="B112" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B112" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
+      <c r="B113" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B113" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
+      <c r="B114" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B114" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
+      <c r="B115" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B115" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
+      <c r="B116" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B116" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
+      <c r="B117" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B117" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
+      <c r="B118" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B118" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
+      <c r="B119" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B119" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
+      <c r="B120" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B120" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
+      <c r="B121" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B121" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
+      <c r="B122" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B122" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
+      <c r="B123" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B123" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
+      <c r="B124" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B124" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>127</v>
-      </c>
-      <c r="B125" t="s">
-        <v>78</v>
+      <c r="B125" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B126" t="s">
         <v>78</v>
@@ -2890,7 +2906,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B127" t="s">
         <v>78</v>
@@ -2898,7 +2914,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B128" t="s">
         <v>78</v>
@@ -2906,7 +2922,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B129" t="s">
         <v>78</v>
@@ -2914,7 +2930,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B130" t="s">
         <v>78</v>
@@ -2922,7 +2938,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B131" t="s">
         <v>78</v>
@@ -2930,7 +2946,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B132" t="s">
         <v>78</v>
@@ -2938,7 +2954,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B133" t="s">
         <v>78</v>
@@ -2946,7 +2962,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B134" t="s">
         <v>78</v>
@@ -2954,7 +2970,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B135" t="s">
         <v>78</v>
@@ -2962,7 +2978,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B136" t="s">
         <v>78</v>
@@ -2970,7 +2986,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B137" t="s">
         <v>78</v>
@@ -2978,7 +2994,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B138" t="s">
         <v>78</v>
@@ -2986,7 +3002,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B139" t="s">
         <v>78</v>
@@ -2994,7 +3010,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B140" t="s">
         <v>78</v>
@@ -3002,7 +3018,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B141" t="s">
         <v>78</v>
@@ -3010,7 +3026,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B142" t="s">
         <v>78</v>
@@ -3018,7 +3034,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B143" t="s">
         <v>78</v>
@@ -3026,7 +3042,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B144" t="s">
         <v>78</v>
@@ -3034,7 +3050,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B145" t="s">
         <v>78</v>
@@ -3042,7 +3058,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B146" t="s">
         <v>78</v>
@@ -3050,7 +3066,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B147" t="s">
         <v>78</v>
@@ -3058,7 +3074,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B148" t="s">
         <v>78</v>
@@ -3066,7 +3082,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B149" t="s">
         <v>78</v>
@@ -3074,7 +3090,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B150" t="s">
         <v>78</v>
@@ -3082,7 +3098,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B151" t="s">
         <v>78</v>
@@ -3090,7 +3106,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B152" t="s">
         <v>78</v>
@@ -3098,7 +3114,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B153" t="s">
         <v>78</v>
@@ -3106,7 +3122,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B154" t="s">
         <v>78</v>
@@ -3114,7 +3130,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B155" t="s">
         <v>78</v>
@@ -3122,7 +3138,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B156" t="s">
         <v>78</v>
@@ -3130,7 +3146,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B157" t="s">
         <v>78</v>
@@ -3138,7 +3154,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B158" t="s">
         <v>78</v>
@@ -3146,7 +3162,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B159" t="s">
         <v>78</v>
@@ -3154,7 +3170,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B160" t="s">
         <v>78</v>
@@ -3162,7 +3178,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B161" t="s">
         <v>78</v>
@@ -3170,7 +3186,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B162" t="s">
         <v>78</v>
@@ -3178,7 +3194,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B163" t="s">
         <v>78</v>
@@ -3186,7 +3202,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B164" t="s">
         <v>78</v>
@@ -3194,7 +3210,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B165" t="s">
         <v>78</v>
@@ -3202,7 +3218,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B166" t="s">
         <v>78</v>
@@ -3210,7 +3226,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B167" t="s">
         <v>78</v>
@@ -3218,7 +3234,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B168" t="s">
         <v>78</v>
@@ -3226,7 +3242,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B169" t="s">
         <v>78</v>
@@ -3234,7 +3250,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B170" t="s">
         <v>78</v>
@@ -3242,7 +3258,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B171" t="s">
         <v>78</v>
@@ -3250,7 +3266,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B172" t="s">
         <v>78</v>
@@ -3258,7 +3274,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B173" t="s">
         <v>78</v>
@@ -3266,7 +3282,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B174" t="s">
         <v>78</v>
@@ -3274,7 +3290,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B175" t="s">
         <v>78</v>
@@ -3282,7 +3298,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B176" t="s">
         <v>78</v>
@@ -3290,7 +3306,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B177" t="s">
         <v>78</v>
@@ -3298,7 +3314,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B178" t="s">
         <v>78</v>
@@ -3306,7 +3322,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B179" t="s">
         <v>78</v>
@@ -3314,7 +3330,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B180" t="s">
         <v>78</v>
@@ -3322,7 +3338,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B181" t="s">
         <v>78</v>
@@ -3330,7 +3346,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B182" t="s">
         <v>78</v>
@@ -3338,7 +3354,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B183" t="s">
         <v>78</v>
@@ -3346,7 +3362,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B184" t="s">
         <v>78</v>
@@ -3354,7 +3370,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B185" t="s">
         <v>78</v>
@@ -3362,7 +3378,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B186" t="s">
         <v>78</v>
@@ -3370,7 +3386,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B187" t="s">
         <v>78</v>
@@ -3378,7 +3394,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B188" t="s">
         <v>78</v>
@@ -3386,7 +3402,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B189" t="s">
         <v>78</v>
@@ -3394,7 +3410,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B190" t="s">
         <v>78</v>
@@ -3402,7 +3418,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B191" t="s">
         <v>78</v>
@@ -3410,7 +3426,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B192" t="s">
         <v>78</v>
@@ -3418,7 +3434,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B193" t="s">
         <v>78</v>
@@ -3426,7 +3442,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B194" t="s">
         <v>78</v>
@@ -3434,7 +3450,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B195" t="s">
         <v>78</v>
@@ -3442,7 +3458,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B196" t="s">
         <v>78</v>
@@ -3450,7 +3466,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B197" t="s">
         <v>78</v>
@@ -3458,7 +3474,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B198" t="s">
         <v>78</v>
@@ -3466,7 +3482,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B199" t="s">
         <v>78</v>
@@ -3474,7 +3490,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B200" t="s">
         <v>78</v>
@@ -3482,7 +3498,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B201" t="s">
         <v>78</v>
@@ -3490,7 +3506,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B202" t="s">
         <v>78</v>
@@ -3498,7 +3514,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B203" t="s">
         <v>78</v>
@@ -3506,7 +3522,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B204" t="s">
         <v>78</v>
@@ -3514,7 +3530,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B205" t="s">
         <v>78</v>
@@ -3522,7 +3538,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B206" t="s">
         <v>78</v>
@@ -3530,7 +3546,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B207" t="s">
         <v>78</v>
@@ -3538,7 +3554,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B208" t="s">
         <v>78</v>
@@ -3546,7 +3562,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B209" t="s">
         <v>78</v>
@@ -3554,7 +3570,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B210" t="s">
         <v>78</v>
@@ -3562,7 +3578,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B211" t="s">
         <v>78</v>
@@ -3570,7 +3586,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B212" t="s">
         <v>78</v>
@@ -3578,7 +3594,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B213" t="s">
         <v>78</v>
@@ -3586,7 +3602,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B214" t="s">
         <v>78</v>
@@ -3594,7 +3610,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B215" t="s">
         <v>78</v>
@@ -3602,7 +3618,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B216" t="s">
         <v>78</v>
@@ -3610,7 +3626,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B217" t="s">
         <v>78</v>
@@ -3618,7 +3634,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B218" t="s">
         <v>78</v>
@@ -3626,7 +3642,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B219" t="s">
         <v>78</v>
@@ -3634,7 +3650,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B220" t="s">
         <v>78</v>
@@ -3642,7 +3658,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B221" t="s">
         <v>78</v>
@@ -3650,7 +3666,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B222" t="s">
         <v>78</v>
@@ -3658,7 +3674,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B223" t="s">
         <v>78</v>
@@ -3666,7 +3682,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B224" t="s">
         <v>78</v>
@@ -3674,7 +3690,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B225" t="s">
         <v>78</v>
@@ -3682,7 +3698,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B226" t="s">
         <v>78</v>
@@ -3690,7 +3706,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B227" t="s">
         <v>78</v>
@@ -3698,7 +3714,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B228" t="s">
         <v>78</v>
@@ -3706,7 +3722,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B229" t="s">
         <v>78</v>
@@ -3714,7 +3730,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B230" t="s">
         <v>78</v>
@@ -3722,7 +3738,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B231" t="s">
         <v>78</v>
@@ -3730,7 +3746,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B232" t="s">
         <v>78</v>
@@ -3738,7 +3754,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B233" t="s">
         <v>78</v>
@@ -3746,7 +3762,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B234" t="s">
         <v>78</v>
@@ -3754,7 +3770,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B235" t="s">
         <v>78</v>
@@ -3762,7 +3778,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B236" t="s">
         <v>78</v>
@@ -3770,7 +3786,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B237" t="s">
         <v>78</v>
@@ -3778,7 +3794,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B238" t="s">
         <v>78</v>
@@ -3786,7 +3802,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B239" t="s">
         <v>78</v>
@@ -3794,7 +3810,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B240" t="s">
         <v>78</v>
@@ -3802,7 +3818,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B241" t="s">
         <v>78</v>
@@ -3810,7 +3826,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B242" t="s">
         <v>78</v>
@@ -3818,7 +3834,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B243" t="s">
         <v>78</v>
@@ -3826,7 +3842,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B244" t="s">
         <v>78</v>
@@ -3834,7 +3850,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B245" t="s">
         <v>78</v>
@@ -3842,15 +3858,15 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B246" t="s">
-        <v>2</v>
+        <v>78</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B247" t="s">
         <v>2</v>
@@ -3858,7 +3874,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B248" t="s">
         <v>2</v>
@@ -3866,7 +3882,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B249" t="s">
         <v>2</v>
@@ -3874,7 +3890,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B250" t="s">
         <v>2</v>
@@ -3882,7 +3898,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B251" t="s">
         <v>2</v>
@@ -3890,7 +3906,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B252" t="s">
         <v>2</v>
@@ -3898,7 +3914,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B253" t="s">
         <v>2</v>
@@ -3906,7 +3922,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B254" t="s">
         <v>2</v>
@@ -3914,7 +3930,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B255" t="s">
         <v>2</v>
@@ -3922,7 +3938,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B256" t="s">
         <v>2</v>
@@ -3930,7 +3946,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B257" t="s">
         <v>2</v>
@@ -3938,7 +3954,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B258" t="s">
         <v>2</v>
@@ -3946,7 +3962,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B259" t="s">
         <v>2</v>
@@ -3954,7 +3970,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B260" t="s">
         <v>2</v>
@@ -3962,7 +3978,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B261" t="s">
         <v>2</v>
@@ -3970,7 +3986,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B262" t="s">
         <v>2</v>
@@ -3978,7 +3994,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B263" t="s">
         <v>2</v>
@@ -3986,7 +4002,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B264" t="s">
         <v>2</v>
@@ -3994,7 +4010,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B265" t="s">
         <v>2</v>
@@ -4002,7 +4018,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B266" t="s">
         <v>2</v>
@@ -4010,7 +4026,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B267" t="s">
         <v>2</v>
@@ -4018,7 +4034,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B268" t="s">
         <v>2</v>
@@ -4026,7 +4042,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B269" t="s">
         <v>2</v>
@@ -4034,7 +4050,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B270" t="s">
         <v>2</v>
@@ -4042,7 +4058,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B271" t="s">
         <v>2</v>
@@ -4050,7 +4066,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B272" t="s">
         <v>2</v>
@@ -4058,7 +4074,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B273" t="s">
         <v>2</v>
@@ -4066,7 +4082,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B274" t="s">
         <v>2</v>
@@ -4074,7 +4090,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B275" t="s">
         <v>2</v>
@@ -4082,7 +4098,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B276" t="s">
         <v>2</v>
@@ -4090,7 +4106,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B277" t="s">
         <v>2</v>
@@ -4098,7 +4114,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B278" t="s">
         <v>2</v>
@@ -4106,7 +4122,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B279" t="s">
         <v>2</v>
@@ -4114,7 +4130,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B280" t="s">
         <v>2</v>
@@ -4122,7 +4138,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B281" t="s">
         <v>2</v>
@@ -4130,7 +4146,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B282" t="s">
         <v>2</v>
@@ -4138,7 +4154,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B283" t="s">
         <v>2</v>
@@ -4146,7 +4162,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B284" t="s">
         <v>2</v>
@@ -4154,7 +4170,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B285" t="s">
         <v>2</v>
@@ -4162,7 +4178,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B286" t="s">
         <v>2</v>
@@ -4170,7 +4186,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B287" t="s">
         <v>2</v>
@@ -4178,7 +4194,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B288" t="s">
         <v>2</v>
@@ -4186,7 +4202,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B289" t="s">
         <v>2</v>
@@ -4194,7 +4210,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B290" t="s">
         <v>2</v>
@@ -4202,7 +4218,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B291" t="s">
         <v>2</v>
@@ -4210,7 +4226,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B292" t="s">
         <v>2</v>
@@ -4218,7 +4234,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B293" t="s">
         <v>2</v>
@@ -4226,7 +4242,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B294" t="s">
         <v>2</v>
@@ -4234,7 +4250,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B295" t="s">
         <v>2</v>
@@ -4242,7 +4258,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B296" t="s">
         <v>2</v>
@@ -4250,7 +4266,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B297" t="s">
         <v>2</v>
@@ -4258,7 +4274,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B298" t="s">
         <v>2</v>
@@ -4266,7 +4282,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B299" t="s">
         <v>2</v>
@@ -4274,7 +4290,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B300" t="s">
         <v>2</v>
@@ -4282,7 +4298,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B301" t="s">
         <v>2</v>
@@ -4290,7 +4306,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B302" t="s">
         <v>2</v>
@@ -4298,7 +4314,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B303" t="s">
         <v>2</v>
@@ -4306,7 +4322,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B304" t="s">
         <v>2</v>
@@ -4314,7 +4330,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B305" t="s">
         <v>2</v>
@@ -4322,7 +4338,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B306" t="s">
         <v>2</v>
@@ -4330,7 +4346,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B307" t="s">
         <v>2</v>
@@ -4338,7 +4354,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B308" t="s">
         <v>2</v>
@@ -4346,7 +4362,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B309" t="s">
         <v>2</v>
@@ -4354,7 +4370,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B310" t="s">
         <v>2</v>
@@ -4362,7 +4378,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B311" t="s">
         <v>2</v>
@@ -4370,7 +4386,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B312" t="s">
         <v>2</v>
@@ -4378,7 +4394,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B313" t="s">
         <v>2</v>
@@ -4386,7 +4402,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B314" t="s">
         <v>2</v>
@@ -4394,7 +4410,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B315" t="s">
         <v>2</v>
@@ -4402,7 +4418,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B316" t="s">
         <v>2</v>
@@ -4410,7 +4426,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B317" t="s">
         <v>2</v>
@@ -4418,7 +4434,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B318" t="s">
         <v>2</v>
@@ -4426,7 +4442,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B319" t="s">
         <v>2</v>
@@ -4434,7 +4450,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B320" t="s">
         <v>2</v>
@@ -4442,7 +4458,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B321" t="s">
         <v>2</v>
@@ -4450,7 +4466,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B322" t="s">
         <v>2</v>
@@ -4458,7 +4474,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B323" t="s">
         <v>2</v>
@@ -4466,7 +4482,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B324" t="s">
         <v>2</v>
@@ -4474,7 +4490,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B325" t="s">
         <v>2</v>
@@ -4482,7 +4498,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B326" t="s">
         <v>2</v>
@@ -4490,7 +4506,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B327" t="s">
         <v>2</v>
@@ -4498,7 +4514,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B328" t="s">
         <v>2</v>
@@ -4506,7 +4522,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B329" t="s">
         <v>2</v>
@@ -4514,7 +4530,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B330" t="s">
         <v>2</v>
@@ -4522,7 +4538,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B331" t="s">
         <v>2</v>
@@ -4530,7 +4546,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B332" t="s">
         <v>2</v>
@@ -4538,7 +4554,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B333" t="s">
         <v>2</v>
@@ -4546,7 +4562,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B334" t="s">
         <v>2</v>
@@ -4554,7 +4570,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B335" t="s">
         <v>2</v>
@@ -4562,7 +4578,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B336" t="s">
         <v>2</v>
@@ -4570,7 +4586,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B337" t="s">
         <v>2</v>
@@ -4578,7 +4594,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B338" t="s">
         <v>2</v>
@@ -4586,7 +4602,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B339" t="s">
         <v>2</v>
@@ -4594,7 +4610,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B340" t="s">
         <v>2</v>
@@ -4602,7 +4618,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B341" t="s">
         <v>2</v>
@@ -4610,7 +4626,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B342" t="s">
         <v>2</v>
@@ -4618,7 +4634,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B343" t="s">
         <v>2</v>
@@ -4626,7 +4642,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B344" t="s">
         <v>2</v>
@@ -4634,7 +4650,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B345" t="s">
         <v>2</v>
@@ -4642,7 +4658,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B346" t="s">
         <v>2</v>
@@ -4650,7 +4666,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B347" t="s">
         <v>2</v>
@@ -4658,7 +4674,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B348" t="s">
         <v>2</v>
@@ -4666,7 +4682,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B349" t="s">
         <v>2</v>
@@ -4674,7 +4690,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B350" t="s">
         <v>2</v>
@@ -4682,7 +4698,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B351" t="s">
         <v>2</v>
@@ -4690,7 +4706,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B352" t="s">
         <v>2</v>
@@ -4698,7 +4714,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B353" t="s">
         <v>2</v>
@@ -4706,7 +4722,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B354" t="s">
         <v>2</v>
@@ -4714,7 +4730,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B355" t="s">
         <v>2</v>
@@ -4722,7 +4738,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B356" t="s">
         <v>2</v>
@@ -4730,7 +4746,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B357" t="s">
         <v>2</v>
@@ -4738,7 +4754,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B358" t="s">
         <v>2</v>
@@ -4746,7 +4762,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B359" t="s">
         <v>2</v>
@@ -4754,7 +4770,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B360" t="s">
         <v>2</v>
@@ -4762,7 +4778,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B361" t="s">
         <v>2</v>
@@ -4770,7 +4786,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B362" t="s">
         <v>2</v>
@@ -4778,7 +4794,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B363" t="s">
         <v>2</v>
@@ -4786,7 +4802,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B364" t="s">
         <v>2</v>
@@ -4794,7 +4810,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B365" t="s">
         <v>2</v>
@@ -4802,7 +4818,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B366" t="s">
         <v>2</v>
@@ -4810,7 +4826,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B367" t="s">
         <v>2</v>
@@ -4818,7 +4834,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B368" t="s">
         <v>2</v>
@@ -4826,7 +4842,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B369" t="s">
         <v>2</v>
@@ -4834,7 +4850,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B370" t="s">
         <v>2</v>
@@ -4842,7 +4858,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B371" t="s">
         <v>2</v>
@@ -4850,7 +4866,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B372" t="s">
         <v>2</v>
@@ -4858,7 +4874,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B373" t="s">
         <v>2</v>
@@ -4866,7 +4882,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B374" t="s">
         <v>2</v>
@@ -4874,7 +4890,7 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B375" t="s">
         <v>2</v>
@@ -4882,7 +4898,7 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B376" t="s">
         <v>2</v>
@@ -4890,7 +4906,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B377" t="s">
         <v>2</v>
@@ -4898,7 +4914,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B378" t="s">
         <v>2</v>
@@ -4906,7 +4922,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B379" t="s">
         <v>2</v>
@@ -4914,7 +4930,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B380" t="s">
         <v>2</v>
@@ -4922,7 +4938,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B381" t="s">
         <v>2</v>
@@ -4930,7 +4946,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B382" t="s">
         <v>2</v>
@@ -4938,7 +4954,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B383" t="s">
         <v>2</v>
@@ -4946,7 +4962,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B384" t="s">
         <v>2</v>
@@ -4954,7 +4970,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B385" t="s">
         <v>2</v>
@@ -4962,7 +4978,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B386" t="s">
         <v>2</v>
@@ -4970,7 +4986,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B387" t="s">
         <v>2</v>
@@ -4978,7 +4994,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B388" t="s">
         <v>2</v>
@@ -4986,7 +5002,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B389" t="s">
         <v>2</v>
@@ -4994,7 +5010,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B390" t="s">
         <v>2</v>
@@ -5002,7 +5018,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B391" t="s">
         <v>2</v>
@@ -5010,7 +5026,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B392" t="s">
         <v>2</v>
@@ -5018,7 +5034,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B393" t="s">
         <v>2</v>
@@ -5026,7 +5042,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B394" t="s">
         <v>2</v>
@@ -5034,7 +5050,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B395" t="s">
         <v>2</v>
@@ -5042,23 +5058,23 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B396" t="s">
-        <v>399</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B397" t="s">
-        <v>78</v>
+        <v>399</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B398" t="s">
         <v>78</v>
@@ -5066,7 +5082,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B399" t="s">
         <v>78</v>
@@ -5074,7 +5090,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B400" t="s">
         <v>78</v>
@@ -5082,15 +5098,15 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B401" t="s">
-        <v>405</v>
+        <v>78</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B402" t="s">
         <v>405</v>
@@ -5098,7 +5114,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B403" t="s">
         <v>405</v>
@@ -5106,7 +5122,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B404" t="s">
         <v>405</v>
@@ -5114,7 +5130,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B405" t="s">
         <v>405</v>
@@ -5122,7 +5138,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B406" t="s">
         <v>405</v>
@@ -5130,7 +5146,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B407" t="s">
         <v>405</v>
@@ -5138,7 +5154,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B408" t="s">
         <v>405</v>
@@ -5146,7 +5162,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B409" t="s">
         <v>405</v>
@@ -5154,7 +5170,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B410" t="s">
         <v>405</v>
@@ -5162,7 +5178,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B411" t="s">
         <v>405</v>
@@ -5170,7 +5186,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B412" t="s">
         <v>405</v>
@@ -5178,7 +5194,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B413" t="s">
         <v>405</v>
@@ -5186,7 +5202,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B414" t="s">
         <v>405</v>
@@ -5194,7 +5210,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B415" t="s">
         <v>405</v>
@@ -5202,7 +5218,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B416" t="s">
         <v>405</v>
@@ -5210,7 +5226,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B417" t="s">
         <v>405</v>
@@ -5218,63 +5234,63 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
+        <v>421</v>
+      </c>
+      <c r="B418" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
         <v>422</v>
       </c>
-      <c r="B418" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A419" s="2" t="s">
+      <c r="B419" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A420" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="B419" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A420" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="B420" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B421" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B422" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B423" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B424" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B425" s="3" t="s">
         <v>0</v>
@@ -5282,7 +5298,7 @@
     </row>
     <row r="426" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B426" s="3" t="s">
         <v>0</v>
@@ -5290,15 +5306,15 @@
     </row>
     <row r="427" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B427" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B428" s="3" t="s">
         <v>0</v>
@@ -5306,23 +5322,23 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B429" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B430" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B431" s="3" t="s">
         <v>0</v>
@@ -5330,23 +5346,23 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B432" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B433" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B434" s="3" t="s">
         <v>0</v>
@@ -5354,23 +5370,23 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B435" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B436" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B437" s="3" t="s">
         <v>0</v>
@@ -5378,15 +5394,15 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B438" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B439" s="3" t="s">
         <v>0</v>
@@ -5394,7 +5410,7 @@
     </row>
     <row r="440" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B440" s="3" t="s">
         <v>0</v>
@@ -5402,7 +5418,7 @@
     </row>
     <row r="441" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B441" s="3" t="s">
         <v>0</v>
@@ -5410,7 +5426,7 @@
     </row>
     <row r="442" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B442" s="3" t="s">
         <v>0</v>
@@ -5418,23 +5434,23 @@
     </row>
     <row r="443" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B443" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A444" t="s">
-        <v>448</v>
-      </c>
-      <c r="B444" t="s">
-        <v>405</v>
+    <row r="444" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A444" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B444" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B445" t="s">
         <v>405</v>
@@ -5442,7 +5458,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B446" t="s">
         <v>405</v>
@@ -5450,7 +5466,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B447" t="s">
         <v>405</v>
@@ -5458,7 +5474,7 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B448" t="s">
         <v>405</v>
@@ -5466,7 +5482,7 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B449" t="s">
         <v>405</v>
@@ -5474,7 +5490,7 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B450" t="s">
         <v>405</v>
@@ -5482,7 +5498,7 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B451" t="s">
         <v>405</v>
@@ -5490,7 +5506,7 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B452" t="s">
         <v>405</v>
@@ -5498,7 +5514,7 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B453" t="s">
         <v>405</v>
@@ -5506,7 +5522,7 @@
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B454" t="s">
         <v>405</v>
@@ -5514,7 +5530,7 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B455" t="s">
         <v>405</v>
@@ -5522,7 +5538,7 @@
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B456" t="s">
         <v>405</v>
@@ -5530,7 +5546,7 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B457" t="s">
         <v>405</v>
@@ -5538,7 +5554,7 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B458" t="s">
         <v>405</v>
@@ -5546,7 +5562,7 @@
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B459" t="s">
         <v>405</v>
@@ -5554,7 +5570,7 @@
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B460" t="s">
         <v>405</v>
@@ -5562,7 +5578,7 @@
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B461" t="s">
         <v>405</v>
@@ -5570,7 +5586,7 @@
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B462" t="s">
         <v>405</v>
@@ -5578,7 +5594,7 @@
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B463" t="s">
         <v>405</v>
@@ -5586,7 +5602,7 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B464" t="s">
         <v>405</v>
@@ -5594,7 +5610,7 @@
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B465" t="s">
         <v>405</v>
@@ -5602,7 +5618,7 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B466" t="s">
         <v>405</v>
@@ -5610,7 +5626,7 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B467" t="s">
         <v>405</v>
@@ -5618,7 +5634,7 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B468" t="s">
         <v>405</v>
@@ -5626,7 +5642,7 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B469" t="s">
         <v>405</v>
@@ -5634,7 +5650,7 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B470" t="s">
         <v>405</v>
@@ -5642,7 +5658,7 @@
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B471" t="s">
         <v>405</v>
@@ -5650,7 +5666,7 @@
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B472" t="s">
         <v>405</v>
@@ -5658,7 +5674,7 @@
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B473" t="s">
         <v>405</v>
@@ -5666,7 +5682,7 @@
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B474" t="s">
         <v>405</v>
@@ -5674,7 +5690,7 @@
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B475" t="s">
         <v>405</v>
@@ -5682,7 +5698,7 @@
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B476" t="s">
         <v>405</v>
@@ -5690,7 +5706,7 @@
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B477" t="s">
         <v>405</v>
@@ -5698,7 +5714,7 @@
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B478" t="s">
         <v>405</v>
@@ -5706,7 +5722,7 @@
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B479" t="s">
         <v>405</v>
@@ -5714,7 +5730,7 @@
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B480" t="s">
         <v>405</v>
@@ -5722,7 +5738,7 @@
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B481" t="s">
         <v>405</v>
@@ -5730,7 +5746,7 @@
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B482" t="s">
         <v>405</v>
@@ -5738,7 +5754,7 @@
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B483" t="s">
         <v>405</v>
@@ -5746,7 +5762,7 @@
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B484" t="s">
         <v>405</v>
@@ -5754,7 +5770,7 @@
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B485" t="s">
         <v>405</v>
@@ -5762,7 +5778,7 @@
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B486" t="s">
         <v>405</v>
@@ -5770,7 +5786,7 @@
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B487" t="s">
         <v>405</v>
@@ -5778,7 +5794,7 @@
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B488" t="s">
         <v>405</v>
@@ -5786,7 +5802,7 @@
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B489" t="s">
         <v>405</v>
@@ -5794,7 +5810,7 @@
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B490" t="s">
         <v>405</v>
@@ -5802,7 +5818,7 @@
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B491" t="s">
         <v>405</v>
@@ -5810,7 +5826,7 @@
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B492" t="s">
         <v>405</v>
@@ -5818,7 +5834,7 @@
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B493" t="s">
         <v>405</v>
@@ -5826,7 +5842,7 @@
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B494" t="s">
         <v>405</v>
@@ -5834,7 +5850,7 @@
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B495" t="s">
         <v>405</v>
@@ -5842,7 +5858,7 @@
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B496" t="s">
         <v>405</v>
@@ -5850,7 +5866,7 @@
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B497" t="s">
         <v>405</v>
@@ -5858,7 +5874,7 @@
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B498" t="s">
         <v>405</v>
@@ -5866,7 +5882,7 @@
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B499" t="s">
         <v>405</v>
@@ -5874,7 +5890,7 @@
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B500" t="s">
         <v>405</v>
@@ -5882,9 +5898,17 @@
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
+        <v>504</v>
+      </c>
+      <c r="B501" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
         <v>505</v>
       </c>
-      <c r="B501" t="s">
+      <c r="B502" t="s">
         <v>405</v>
       </c>
     </row>
